--- a/regionseng/2/standard of living/incomes.xlsx
+++ b/regionseng/2/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -331,6 +331,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -341,16 +353,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -664,35 +679,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="12">
         <v>2011</v>
@@ -727,8 +745,14 @@
       <c r="L2" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -762,11 +786,17 @@
       <c r="K3" s="9">
         <v>93.906257662394822</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="9">
         <v>99.736877271991474</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="17">
+        <v>115.65529492982292</v>
+      </c>
+      <c r="N3" s="25">
+        <v>135.92502846417366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -800,11 +830,17 @@
       <c r="K4" s="9">
         <v>83.011131855254163</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="9">
         <v>86.829011953044088</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="17">
+        <v>100.58247660286725</v>
+      </c>
+      <c r="N4" s="25">
+        <v>119.4790830860746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -838,11 +874,17 @@
       <c r="K5" s="10">
         <v>31.53070110702896</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="10">
         <v>30.980034943005876</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="18">
+        <v>39.640727743179319</v>
+      </c>
+      <c r="N5" s="26">
+        <v>46.468893297192892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -876,11 +918,17 @@
       <c r="K6" s="10">
         <v>9.9465188245836913</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="10">
         <v>10.216997430750531</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="18">
+        <v>12.756307075856526</v>
+      </c>
+      <c r="N6" s="26">
+        <v>13.153676429735819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
@@ -914,11 +962,17 @@
       <c r="K7" s="10">
         <v>8.1827108229977306</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="10">
         <v>9.0833147792328521</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="18">
+        <v>8.146540430668006</v>
+      </c>
+      <c r="N7" s="26">
+        <v>11.810795986455027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -952,11 +1006,17 @@
       <c r="K8" s="10">
         <v>0.47949828637441005</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="10">
         <v>0.1010590108235677</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="18">
+        <v>0.31374689239501952</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0.42907090479532872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -990,11 +1050,17 @@
       <c r="K9" s="10">
         <v>24.629584382954917</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="10">
         <v>26.025503680695842</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="18">
+        <v>29.300547899546299</v>
+      </c>
+      <c r="N9" s="26">
+        <v>35.751378145708721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -1028,11 +1094,17 @@
       <c r="K10" s="10">
         <v>3.2681708856836948</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="10">
         <v>5.2414490169525152</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="18">
+        <v>4.8304208000183104</v>
+      </c>
+      <c r="N10" s="26">
+        <v>3.6015434477488202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
@@ -1066,11 +1138,17 @@
       <c r="K11" s="10">
         <v>4.9739475456307733</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="10">
         <v>5.1806530915828866</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="18">
+        <v>5.5941857612037662</v>
+      </c>
+      <c r="N11" s="26">
+        <v>8.2637248744379672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1104,11 +1182,17 @@
       <c r="K12" s="9">
         <v>10.895125807140651</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="9">
         <v>12.907865318947376</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="17">
+        <v>15.072818326955638</v>
+      </c>
+      <c r="N12" s="25">
+        <v>16.445945378099069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -1142,11 +1226,17 @@
       <c r="K13" s="9">
         <v>5.399634222709655</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="9">
         <v>4.0595448403040564</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="17">
+        <v>5.6513218341318758</v>
+      </c>
+      <c r="N13" s="25">
+        <v>4.0265273628997802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
@@ -1180,11 +1270,17 @@
       <c r="K14" s="10">
         <v>6.2194798787434891E-2</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="10">
         <v>3.9091184997558592E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="18">
+        <v>0.44941726175944013</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0.72963815879821781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1218,11 +1314,17 @@
       <c r="K15" s="10">
         <v>5.3374394239222216</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="10">
         <v>4.0204536553064978</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="18">
+        <v>5.2019045723724364</v>
+      </c>
+      <c r="N15" s="26">
+        <v>3.2968892041015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
@@ -1256,11 +1358,17 @@
       <c r="K16" s="9">
         <v>88.410766077963828</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="9">
         <v>90.888556793348144</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="17">
+        <v>106.23379843699915</v>
+      </c>
+      <c r="N16" s="25">
+        <v>123.50561044897438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
@@ -1294,11 +1402,17 @@
       <c r="K17" s="11">
         <v>99.305891885104458</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="11">
         <v>103.79642211229552</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="19">
+        <v>121.30661676395479</v>
+      </c>
+      <c r="N17" s="27">
+        <v>139.95155582707343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1309,7 +1423,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1320,23 +1434,25 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="12">
         <v>2011</v>
@@ -1371,8 +1487,14 @@
       <c r="L21" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
@@ -1406,11 +1528,17 @@
       <c r="K22" s="6">
         <v>995.26310779699077</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="6">
         <v>1072.4448957909062</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="20">
+        <v>1249.8497752711637</v>
+      </c>
+      <c r="N22" s="28">
+        <v>1474.6620170649578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -1444,11 +1572,17 @@
       <c r="K23" s="6">
         <v>879.79139120875391</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="6">
         <v>933.64995197979681</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="17">
+        <v>1086.962649263837</v>
+      </c>
+      <c r="N23" s="25">
+        <v>1296.2385783661757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>0</v>
       </c>
@@ -1482,11 +1616,17 @@
       <c r="K24" s="7">
         <v>334.17734191495168</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="7">
         <v>333.12031873070072</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="18">
+        <v>428.3846640265009</v>
+      </c>
+      <c r="N24" s="26">
+        <v>504.14491499243235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>1</v>
       </c>
@@ -1520,11 +1660,17 @@
       <c r="K25" s="7">
         <v>105.41792936426103</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="7">
         <v>109.86073601478448</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="18">
+        <v>137.85332994674715</v>
+      </c>
+      <c r="N25" s="26">
+        <v>142.70533716170328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
@@ -1558,11 +1704,17 @@
       <c r="K26" s="7">
         <v>86.724254662339433</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="7">
         <v>97.670539105458658</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="18">
+        <v>88.037056432963482</v>
+      </c>
+      <c r="N26" s="26">
+        <v>128.13631477089692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
@@ -1596,11 +1748,17 @@
       <c r="K27" s="7">
         <v>5.081950517036038</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="7">
         <v>1.0866614565829096</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="18">
+        <v>3.3905623014482904</v>
+      </c>
+      <c r="N27" s="26">
+        <v>4.6550261793481136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -1634,11 +1792,17 @@
       <c r="K28" s="7">
         <v>261.03603004663506</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="7">
         <v>279.84552300182918</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="18">
+        <v>316.64164818213379</v>
+      </c>
+      <c r="N28" s="26">
+        <v>387.86969555867199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
@@ -1672,11 +1836,17 @@
       <c r="K29" s="7">
         <v>34.637626857531053</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="7">
         <v>56.359948281211608</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="18">
+        <v>52.200812379851186</v>
+      </c>
+      <c r="N29" s="26">
+        <v>39.073446481596399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1710,11 +1880,17 @@
       <c r="K30" s="7">
         <v>52.716257845999785</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="7">
         <v>55.706225389229182</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="18">
+        <v>60.454575994192034</v>
+      </c>
+      <c r="N30" s="26">
+        <v>89.653843221526543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>10</v>
       </c>
@@ -1748,11 +1924,17 @@
       <c r="K31" s="6">
         <v>115.47171658823687</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="6">
         <v>138.79494381110942</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="17">
+        <v>162.88712600732654</v>
+      </c>
+      <c r="N31" s="25">
+        <v>178.42343869878198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>11</v>
       </c>
@@ -1786,11 +1968,17 @@
       <c r="K32" s="6">
         <v>57.227887376594559</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="6">
         <v>43.651237759786994</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="17">
+        <v>61.072027257036552</v>
+      </c>
+      <c r="N32" s="25">
+        <v>43.684132568021319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="15" t="s">
         <v>6</v>
       </c>
@@ -1824,11 +2012,17 @@
       <c r="K33" s="7">
         <v>0.65917000922909919</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="7">
         <v>0.42033742150079129</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="18">
+        <v>4.8567085835010637</v>
+      </c>
+      <c r="N33" s="26">
+        <v>7.915905489506958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -1862,11 +2056,17 @@
       <c r="K34" s="7">
         <v>56.568717367365451</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="7">
         <v>43.230900338286204</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="18">
+        <v>56.215318673535492</v>
+      </c>
+      <c r="N34" s="26">
+        <v>35.768227078514371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>12</v>
       </c>
@@ -1900,11 +2100,17 @@
       <c r="K35" s="6">
         <v>937.01927858534862</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="6">
         <v>977.30118973958372</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="17">
+        <v>1148.0346765208737</v>
+      </c>
+      <c r="N35" s="25">
+        <v>1339.9227109341971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>13</v>
       </c>
@@ -1938,11 +2144,17 @@
       <c r="K36" s="8">
         <v>1052.4909951735851</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="8">
         <v>1116.0961335506934</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="19">
+        <v>1310.9218025282003</v>
+      </c>
+      <c r="N36" s="27">
+        <v>1518.3461496329789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1953,7 +2165,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1964,23 +2176,25 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="12">
         <v>2011</v>
@@ -2015,8 +2229,14 @@
       <c r="L40" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>8</v>
       </c>
@@ -2050,11 +2270,17 @@
       <c r="K41" s="9">
         <v>301.83971052090021</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="9">
         <v>323.44507497543526</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="17">
+        <v>383.9651507804993</v>
+      </c>
+      <c r="N41" s="25">
+        <v>463.04980637865521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
@@ -2088,11 +2314,17 @@
       <c r="K42" s="9">
         <v>266.81987583066052</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="9">
         <v>281.58507714861162</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="17">
+        <v>333.92475301826715</v>
+      </c>
+      <c r="N42" s="25">
+        <v>407.02412877469635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
@@ -2126,11 +2358,17 @@
       <c r="K43" s="10">
         <v>101.34806701468486</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="10">
         <v>100.46775073532503</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="18">
+        <v>131.60364178911249</v>
+      </c>
+      <c r="N43" s="26">
+        <v>158.30353163815593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>1</v>
       </c>
@@ -2164,11 +2402,17 @@
       <c r="K44" s="10">
         <v>31.970759323585444</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44" s="10">
         <v>33.133556918980844</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="18">
+        <v>42.349789283366455</v>
+      </c>
+      <c r="N44" s="26">
+        <v>44.810050016373772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
@@ -2202,11 +2446,17 @@
       <c r="K45" s="10">
         <v>26.301410870501996</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="10">
         <v>29.457042471686634</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="18">
+        <v>27.045779673977478</v>
+      </c>
+      <c r="N45" s="26">
+        <v>40.235318369988669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>15</v>
       </c>
@@ -2240,11 +2490,17 @@
       <c r="K46" s="10">
         <v>1.5412351376502367</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="10">
         <v>0.3277327326344065</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="18">
+        <v>1.0416113928762538</v>
+      </c>
+      <c r="N46" s="26">
+        <v>1.4616969489217995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2278,11 +2534,17 @@
       <c r="K47" s="10">
         <v>79.166040745953936</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="10">
         <v>84.400286228332362</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="18">
+        <v>97.275177059788106</v>
+      </c>
+      <c r="N47" s="26">
+        <v>121.79264492487408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>4</v>
       </c>
@@ -2316,11 +2578,17 @@
       <c r="K48" s="10">
         <v>10.504771232754967</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="10">
         <v>16.997934130670998</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="18">
+        <v>16.036561507518442</v>
+      </c>
+      <c r="N48" s="26">
+        <v>12.269219399751433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>5</v>
       </c>
@@ -2354,11 +2622,17 @@
       <c r="K49" s="10">
         <v>15.987591505529151</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="10">
         <v>16.800773930981222</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="18">
+        <v>18.572192311628005</v>
+      </c>
+      <c r="N49" s="26">
+        <v>28.151667476630685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>10</v>
       </c>
@@ -2392,11 +2666,17 @@
       <c r="K50" s="9">
         <v>35.019834690239726</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="9">
         <v>41.859997826823808</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="17">
+        <v>50.040397762232026</v>
+      </c>
+      <c r="N50" s="25">
+        <v>56.025677603958762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>11</v>
       </c>
@@ -2430,11 +2710,17 @@
       <c r="K51" s="9">
         <v>17.355861805939043</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="9">
         <v>13.165038059668836</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="17">
+        <v>18.761878921913851</v>
+      </c>
+      <c r="N51" s="25">
+        <v>13.716993381101478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>6</v>
       </c>
@@ -2468,11 +2754,17 @@
       <c r="K52" s="10">
         <v>0.19991063992131233</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="10">
         <v>0.12677207877616853</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="18">
+        <v>1.4920247860638678</v>
+      </c>
+      <c r="N52" s="26">
+        <v>2.48562617183519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>7</v>
       </c>
@@ -2506,11 +2798,17 @@
       <c r="K53" s="10">
         <v>17.155951166017729</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="10">
         <v>13.038265980892668</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="18">
+        <v>17.269854135849982</v>
+      </c>
+      <c r="N53" s="26">
+        <v>11.231367209266288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>12</v>
       </c>
@@ -2544,11 +2842,17 @@
       <c r="K54" s="9">
         <v>284.17573763659965</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="9">
         <v>294.75011520828031</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="17">
+        <v>352.68663194018114</v>
+      </c>
+      <c r="N54" s="25">
+        <v>420.74112215579788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>13</v>
       </c>
@@ -2582,49 +2886,59 @@
       <c r="K55" s="11">
         <v>319.19557232683934</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="11">
         <v>336.61011303510423</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="18" t="s">
+      <c r="M55" s="19">
+        <v>402.72702970241312</v>
+      </c>
+      <c r="N55" s="27">
+        <v>476.76679975975657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
